--- a/KnowledgeMap/数学/高等数学/note/36讲/第六讲题目.xlsx
+++ b/KnowledgeMap/数学/高等数学/note/36讲/第六讲题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimshan/Public/learn/PKM/KnowledgeMap/数学/高等数学/note/36讲/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD237A-A3AD-1C43-9AD0-7927BE23328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD264D07-3737-B247-91EE-210927AAD827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9C7BF7F7-FC9E-6F4E-8105-2C032BBB555D}"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="18000" xr2:uid="{9C7BF7F7-FC9E-6F4E-8105-2C032BBB555D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="21">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,11 +634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB649F-D1B5-B34D-A53A-C27AE4E35222}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -853,6 +853,15 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -861,7 +870,16 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -901,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -912,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -923,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -934,63 +952,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1004,72 +1046,105 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="M34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -1085,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1093,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -1101,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -1109,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -1117,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -1125,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -1133,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -1141,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -1149,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -1157,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1165,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1173,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>3</v>
       </c>
